--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -267,24 +267,24 @@
     <t>F02_TC01</t>
   </si>
   <si>
+    <t>task(“title”, 1)</t>
+  </si>
+  <si>
+    <t>1, 3, 4, 5, 6, 7, 9, 11, 13, 15, 16</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>F02_TC02</t>
+  </si>
+  <si>
     <t>null</t>
   </si>
   <si>
     <t>1, 2</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>F01_TC02</t>
-  </si>
-  <si>
-    <t>task(“title”, 1)</t>
-  </si>
-  <si>
-    <t>1, 3, 4, 5, 6, 7, 9, 11, 13, 15, 16</t>
-  </si>
-  <si>
     <t>WBT Implemented TCs</t>
   </si>
   <si>
@@ -321,13 +321,10 @@
     <t>F02</t>
   </si>
   <si>
+    <t>“task”</t>
+  </si>
+  <si>
     <t>NULL</t>
-  </si>
-  <si>
-    <t>F02_TC02</t>
-  </si>
-  <si>
-    <t>“task”</t>
   </si>
   <si>
     <t>Statistics</t>
@@ -582,7 +579,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -638,11 +635,6 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="13"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1445,26 +1437,26 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
@@ -1529,7 +1521,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="9" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1586,10 +1578,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="13" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="14" fillId="13" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="13" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="14" fillId="13" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -4495,43 +4487,53 @@
         <v>73</v>
       </c>
       <c r="D10" t="b" s="80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s" s="81">
         <v>74</v>
       </c>
-      <c r="F10" t="s" s="82">
+      <c r="F10" s="82"/>
+      <c r="G10" t="s" s="83">
         <v>75</v>
       </c>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" t="s" s="84">
+      <c r="H10" t="s" s="83">
         <v>75</v>
       </c>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="86"/>
-      <c r="AF10" s="86"/>
-      <c r="AG10" s="86"/>
+      <c r="I10" s="82"/>
+      <c r="J10" t="s" s="83">
+        <v>75</v>
+      </c>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" t="s" s="83">
+        <v>75</v>
+      </c>
+      <c r="N10" s="82"/>
+      <c r="O10" t="s" s="83">
+        <v>75</v>
+      </c>
+      <c r="P10" s="82"/>
+      <c r="Q10" t="s" s="83">
+        <v>75</v>
+      </c>
+      <c r="R10" s="82"/>
+      <c r="S10" t="s" s="83">
+        <v>75</v>
+      </c>
+      <c r="T10" s="84"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="85"/>
+      <c r="AB10" s="85"/>
+      <c r="AC10" s="85"/>
+      <c r="AD10" s="85"/>
+      <c r="AE10" s="85"/>
+      <c r="AF10" s="85"/>
+      <c r="AG10" s="85"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="4"/>
@@ -4542,53 +4544,43 @@
         <v>77</v>
       </c>
       <c r="D11" t="b" s="80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s" s="81">
         <v>78</v>
       </c>
-      <c r="F11" s="83"/>
-      <c r="G11" t="s" s="82">
+      <c r="F11" t="s" s="83">
         <v>75</v>
       </c>
-      <c r="H11" t="s" s="82">
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" t="s" s="86">
         <v>75</v>
       </c>
-      <c r="I11" s="83"/>
-      <c r="J11" t="s" s="82">
-        <v>75</v>
-      </c>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" t="s" s="82">
-        <v>75</v>
-      </c>
-      <c r="N11" s="83"/>
-      <c r="O11" t="s" s="82">
-        <v>75</v>
-      </c>
-      <c r="P11" s="83"/>
-      <c r="Q11" t="s" s="82">
-        <v>75</v>
-      </c>
-      <c r="R11" s="83"/>
-      <c r="S11" t="s" s="82">
-        <v>75</v>
-      </c>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="86"/>
-      <c r="AF11" s="86"/>
-      <c r="AG11" s="86"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="84"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="85"/>
+      <c r="AC11" s="85"/>
+      <c r="AD11" s="85"/>
+      <c r="AE11" s="85"/>
+      <c r="AF11" s="85"/>
+      <c r="AG11" s="85"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="4"/>
@@ -4598,34 +4590,34 @@
       <c r="C12" s="87"/>
       <c r="D12" s="88"/>
       <c r="E12" s="89"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="85"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="86"/>
-      <c r="AF12" s="86"/>
-      <c r="AG12" s="86"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="84"/>
+      <c r="X12" s="84"/>
+      <c r="Y12" s="84"/>
+      <c r="Z12" s="84"/>
+      <c r="AA12" s="85"/>
+      <c r="AB12" s="85"/>
+      <c r="AC12" s="85"/>
+      <c r="AD12" s="85"/>
+      <c r="AE12" s="85"/>
+      <c r="AF12" s="85"/>
+      <c r="AG12" s="85"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="4"/>
@@ -4635,34 +4627,34 @@
       <c r="C13" s="90"/>
       <c r="D13" s="91"/>
       <c r="E13" s="89"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="85"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="86"/>
-      <c r="AD13" s="86"/>
-      <c r="AE13" s="86"/>
-      <c r="AF13" s="86"/>
-      <c r="AG13" s="86"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="85"/>
+      <c r="AB13" s="85"/>
+      <c r="AC13" s="85"/>
+      <c r="AD13" s="85"/>
+      <c r="AE13" s="85"/>
+      <c r="AF13" s="85"/>
+      <c r="AG13" s="85"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="4"/>
@@ -4672,34 +4664,34 @@
       <c r="C14" s="90"/>
       <c r="D14" s="91"/>
       <c r="E14" s="89"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="86"/>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="86"/>
-      <c r="AG14" s="86"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="84"/>
+      <c r="X14" s="84"/>
+      <c r="Y14" s="84"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="85"/>
+      <c r="AC14" s="85"/>
+      <c r="AD14" s="85"/>
+      <c r="AE14" s="85"/>
+      <c r="AF14" s="85"/>
+      <c r="AG14" s="85"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="4"/>
@@ -4709,34 +4701,34 @@
       <c r="C15" s="90"/>
       <c r="D15" s="91"/>
       <c r="E15" s="89"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="85"/>
-      <c r="Z15" s="85"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="86"/>
-      <c r="AD15" s="86"/>
-      <c r="AE15" s="86"/>
-      <c r="AF15" s="86"/>
-      <c r="AG15" s="86"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="84"/>
+      <c r="Y15" s="84"/>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="85"/>
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="85"/>
+      <c r="AE15" s="85"/>
+      <c r="AF15" s="85"/>
+      <c r="AG15" s="85"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="2"/>
@@ -4960,13 +4952,13 @@
         <v>72</v>
       </c>
       <c r="E6" t="s" s="103">
+        <v>85</v>
+      </c>
+      <c r="F6" t="s" s="103">
         <v>91</v>
       </c>
-      <c r="F6" t="s" s="103">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s" s="103">
-        <v>33</v>
+      <c r="G6" s="104">
+        <v>1</v>
       </c>
       <c r="H6" t="s" s="103">
         <v>24</v>
@@ -4976,7 +4968,7 @@
       </c>
       <c r="J6" s="100"/>
       <c r="K6" t="b" s="104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="s" s="103">
         <v>24</v>
@@ -4991,16 +4983,16 @@
       </c>
       <c r="C7" s="106"/>
       <c r="D7" t="s" s="103">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s" s="103">
         <v>92</v>
       </c>
-      <c r="E7" t="s" s="103">
-        <v>85</v>
-      </c>
       <c r="F7" t="s" s="103">
-        <v>93</v>
-      </c>
-      <c r="G7" s="104">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="G7" t="s" s="103">
+        <v>33</v>
       </c>
       <c r="H7" t="s" s="103">
         <v>24</v>
@@ -5010,7 +5002,7 @@
       </c>
       <c r="J7" s="100"/>
       <c r="K7" t="b" s="104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s" s="103">
         <v>24</v>
@@ -5024,32 +5016,16 @@
         <v>11</v>
       </c>
       <c r="C8" s="106"/>
-      <c r="D8" t="s" s="103">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s" s="103">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s" s="103">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s" s="103">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s" s="103">
-        <v>24</v>
-      </c>
-      <c r="I8" t="s" s="98">
-        <v>24</v>
-      </c>
-      <c r="J8" s="100"/>
-      <c r="K8" t="s" s="103">
-        <v>24</v>
-      </c>
-      <c r="L8" t="s" s="103">
-        <v>24</v>
-      </c>
-      <c r="M8" s="8"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
@@ -5139,7 +5115,7 @@
     <row r="12" ht="14.7" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" t="s" s="109">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -5157,67 +5133,67 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" t="s" s="111">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="112"/>
       <c r="D13" s="112"/>
       <c r="E13" s="112"/>
       <c r="F13" t="s" s="113">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" s="114"/>
       <c r="H13" t="s" s="111">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I13" s="112"/>
       <c r="J13" s="112"/>
       <c r="K13" s="112"/>
       <c r="L13" s="115"/>
       <c r="M13" t="s" s="116">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N13" s="117"/>
     </row>
     <row r="14" ht="14.7" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" t="s" s="118">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s" s="118">
         <v>99</v>
       </c>
-      <c r="C14" t="s" s="118">
+      <c r="D14" t="s" s="118">
         <v>100</v>
       </c>
-      <c r="D14" t="s" s="118">
+      <c r="E14" t="s" s="119">
         <v>101</v>
       </c>
-      <c r="E14" t="s" s="119">
+      <c r="F14" t="s" s="120">
         <v>102</v>
       </c>
-      <c r="F14" t="s" s="120">
+      <c r="G14" t="s" s="118">
         <v>103</v>
       </c>
-      <c r="G14" t="s" s="118">
+      <c r="H14" t="s" s="121">
         <v>104</v>
       </c>
-      <c r="H14" t="s" s="121">
+      <c r="I14" t="s" s="118">
+        <v>98</v>
+      </c>
+      <c r="J14" t="s" s="118">
+        <v>99</v>
+      </c>
+      <c r="K14" t="s" s="118">
         <v>105</v>
       </c>
-      <c r="I14" t="s" s="118">
-        <v>99</v>
-      </c>
-      <c r="J14" t="s" s="118">
-        <v>100</v>
-      </c>
-      <c r="K14" t="s" s="118">
+      <c r="L14" t="s" s="119">
         <v>106</v>
       </c>
-      <c r="L14" t="s" s="119">
+      <c r="M14" t="s" s="96">
         <v>107</v>
       </c>
-      <c r="M14" t="s" s="96">
+      <c r="N14" t="s" s="96">
         <v>108</v>
-      </c>
-      <c r="N14" t="s" s="96">
-        <v>109</v>
       </c>
     </row>
     <row r="15" ht="92.5" customHeight="1">
@@ -5251,10 +5227,10 @@
       <c r="E16" s="127"/>
       <c r="F16" s="128"/>
       <c r="G16" t="s" s="129">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s" s="129">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I16" s="125">
         <f>SUM(J16:K16)</f>
@@ -5268,7 +5244,7 @@
       </c>
       <c r="L16" s="127"/>
       <c r="M16" t="s" s="130">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N16" s="126">
         <f>C16</f>
@@ -5289,10 +5265,7 @@
     <mergeCell ref="N14:N15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="D1:G1"/>
@@ -5308,6 +5281,9 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:L13"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -46,35 +46,22 @@
     <t>Student 1:</t>
   </si>
   <si>
+    <t>Anca Raul</t>
+  </si>
+  <si>
     <t>Student 2:</t>
   </si>
   <si>
-    <t>1. Evidenţa filmelor din colecţia personală</t>
+    <t>Aron Robert</t>
+  </si>
+  <si>
+    <t>1. Organizarea task-urilor</t>
   </si>
   <si>
     <t>Student 3:</t>
   </si>
   <si>
-    <t>Un cinefil doreşte să îşi dezvolte un program pentru gestionarea filmelor din colecţia personală. Programul va permite următoarele operaţii:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>F02.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> cautarea filmelor care au un anumit regizor (sau parti din numele regizorului);</t>
-    </r>
+    <t>Bangala Daniel</t>
   </si>
   <si>
     <r>
@@ -92,7 +79,7 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>cautarea filmelor care au un anumit regizor (sau parti din numele regizorului).</t>
+      <t xml:space="preserve">stergere task </t>
     </r>
   </si>
   <si>
@@ -162,43 +149,40 @@
     <t>F02_P01</t>
   </si>
   <si>
-    <t>1 - 2T - 16</t>
+    <t>1T - 2 - 16</t>
   </si>
   <si>
     <t>F02_P02</t>
   </si>
   <si>
-    <t>1 - 2F - 3 - 4F - 6 - 7F - 9T - 10 - 16</t>
+    <t>1F - 3 - 4F - 6 - 7F - 9T - 10 - 16</t>
   </si>
   <si>
     <t>F02_P03</t>
   </si>
   <si>
-    <t>1 - 2F - 3 - 4T - 5 - 6 - 7F - 9T - 10 - 16</t>
+    <t>1F - 3 - 4T - 5 - 6 - 7F - 9T - 10 - 16</t>
   </si>
   <si>
     <t>F02_P04</t>
   </si>
   <si>
-    <t>1 - 2F - 3 - 4T - 5 - 6 - 7T - 8 - 7F - 9T - 10 - 16</t>
+    <t>1F - 3 - 4T - 5 - 6 - 7T - 8 - 7F - 9F - 11F - 13F - 15 - 16</t>
   </si>
   <si>
     <t>F02_P05</t>
   </si>
   <si>
-    <t>1 - 2F - 3 - 4T - 5 - 6 - 7T - 8 - 7F - 9F - 11T - 12 - 13F - 15 - 16</t>
+    <t>1F - 3 - 4T - 5 - 6 - 7T - 8 - 7F - 9F - 11T - 12 - 13F - 15 - 16</t>
   </si>
   <si>
     <t>F02_P06</t>
   </si>
   <si>
-    <t>1 - 2F - 3 - 4T - 5 - 6 - 7T - 8 - 7F - 9F - 11F - 13F - 15 - 16</t>
-  </si>
-  <si>
     <t>F02_P07</t>
   </si>
   <si>
-    <t>1 - 2F - 3 - 4T - 5 - 6 - 7T - 8 - 7F - 9F - 11F - 13T - 14 - 15 - 16</t>
+    <t>1F - 3 - 4T - 5 - 6 - 7T - 8 - 7F - 9F - 11F - 13T - 14 - 15 - 16</t>
   </si>
   <si>
     <t>TC No.</t>
@@ -267,7 +251,7 @@
     <t>F02_TC01</t>
   </si>
   <si>
-    <t>task(“title”, 1)</t>
+    <t>task(“title”, 1), list.size() = 1, list[0] = task</t>
   </si>
   <si>
     <t>1, 3, 4, 5, 6, 7, 9, 11, 13, 15, 16</t>
@@ -282,7 +266,46 @@
     <t>null</t>
   </si>
   <si>
-    <t>1, 2</t>
+    <t>NullPointerException</t>
+  </si>
+  <si>
+    <t>1, 2, 16</t>
+  </si>
+  <si>
+    <t>F02_TC03</t>
+  </si>
+  <si>
+    <t>task(“title”, 1), list.size() = 2, list[0] = task</t>
+  </si>
+  <si>
+    <t>1, 3, 4, 6, 7, 8, 9, 11, 13, 14, 15, 16</t>
+  </si>
+  <si>
+    <t>F02_TC04</t>
+  </si>
+  <si>
+    <t>task(“title”, 1), list.size() = 0</t>
+  </si>
+  <si>
+    <t>1, 3, 4, 6, 9, 10, 16</t>
+  </si>
+  <si>
+    <t>F02_TC05</t>
+  </si>
+  <si>
+    <t>task(“title”, 1), list.size() = 3, list[1] = task</t>
+  </si>
+  <si>
+    <t>1, 3, 4, 6, 7, 8, 7, 9, 11, 12, 13, 14, 15, 16</t>
+  </si>
+  <si>
+    <t>F02_TC06</t>
+  </si>
+  <si>
+    <t>task(“title”, 1), list.size() = 1</t>
+  </si>
+  <si>
+    <t>1, 3, 4, 6, 7, 8, 7, 9, 10, 16</t>
   </si>
   <si>
     <t>WBT Implemented TCs</t>
@@ -1190,7 +1213,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1248,6 +1271,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1446,72 +1472,66 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1566,19 +1586,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="13" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="13" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="13" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1627,6 +1644,54 @@
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>411667</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>35101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>73472</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4450267" y="2960546"/>
+          <a:ext cx="334906" cy="225708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -1640,7 +1705,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="pasted-movie.png" descr="pasted-movie.png"/>
+        <xdr:cNvPr id="4" name="pasted-movie.png" descr="pasted-movie.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1685,7 +1750,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="pasted-movie.png" descr="pasted-movie.png"/>
+        <xdr:cNvPr id="5" name="pasted-movie.png" descr="pasted-movie.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2778,12 +2843,12 @@
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="14" width="8.85156" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.6719" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85156" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="14" width="6.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="6.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -2929,8 +2994,12 @@
       <c r="N7" t="s" s="17">
         <v>9</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+      <c r="O7" t="s" s="17">
+        <v>10</v>
+      </c>
+      <c r="P7" s="19">
+        <v>231</v>
+      </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="2"/>
@@ -2947,15 +3016,19 @@
       <c r="L8" s="2"/>
       <c r="M8" s="4"/>
       <c r="N8" t="s" s="17">
-        <v>10</v>
-      </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="O8" t="s" s="17">
+        <v>12</v>
+      </c>
+      <c r="P8" s="19">
+        <v>231</v>
+      </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" t="s" s="19">
-        <v>11</v>
+      <c r="B9" t="s" s="20">
+        <v>13</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -2969,16 +3042,18 @@
       <c r="L9" s="2"/>
       <c r="M9" s="4"/>
       <c r="N9" t="s" s="17">
-        <v>12</v>
-      </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
+        <v>14</v>
+      </c>
+      <c r="O9" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="P9" s="19">
+        <v>231</v>
+      </c>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" t="s" s="19">
-        <v>13</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -2996,8 +3071,8 @@
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" t="s" s="19">
-        <v>14</v>
+      <c r="B11" t="s" s="20">
+        <v>16</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -3185,6 +3260,7 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3194,15 +3270,15 @@
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="20" customWidth="1"/>
-    <col min="2" max="2" width="10" style="20" customWidth="1"/>
-    <col min="3" max="16" width="8.85156" style="20" customWidth="1"/>
-    <col min="17" max="17" width="10.6719" style="20" customWidth="1"/>
-    <col min="18" max="19" width="8.85156" style="20" customWidth="1"/>
-    <col min="20" max="20" width="32.4453" style="20" customWidth="1"/>
-    <col min="21" max="16384" width="8.85156" style="20" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="21" customWidth="1"/>
+    <col min="3" max="16" width="6.625" style="21" customWidth="1"/>
+    <col min="17" max="17" width="8" style="21" customWidth="1"/>
+    <col min="18" max="19" width="6.625" style="21" customWidth="1"/>
+    <col min="20" max="20" width="24.3281" style="21" customWidth="1"/>
+    <col min="21" max="16384" width="6.625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.4" customHeight="1">
@@ -3231,16 +3307,16 @@
     </row>
     <row r="2" ht="14.4" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -3253,18 +3329,18 @@
     </row>
     <row r="3" ht="14.4" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="B3" t="s" s="23">
-        <v>15</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
+      <c r="B3" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
       <c r="L3" s="8"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -3299,39 +3375,39 @@
     </row>
     <row r="5" ht="14.4" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
     </row>
     <row r="6" ht="14.4" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" t="s" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
       <c r="I6" t="s" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -3339,22 +3415,22 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="29"/>
+      <c r="P6" s="30"/>
       <c r="Q6" t="s" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="30"/>
+      <c r="T6" s="31"/>
     </row>
     <row r="7" ht="14.4" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="2"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -3364,26 +3440,26 @@
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
     </row>
     <row r="8" ht="14.4" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" t="s" s="32">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s" s="32">
+      <c r="B8" t="s" s="33">
         <v>20</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" t="s" s="37">
+      <c r="C8" t="s" s="33">
         <v>21</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
+      <c r="I8" t="s" s="38">
+        <v>22</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -3392,97 +3468,97 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="4"/>
-      <c r="Q8" t="s" s="38">
-        <v>22</v>
-      </c>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="40">
+      <c r="Q8" t="s" s="39">
+        <v>23</v>
+      </c>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="41">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="14.4" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" t="s" s="14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s" s="14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
       <c r="P9" s="4"/>
-      <c r="Q9" t="s" s="38">
-        <v>25</v>
-      </c>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" t="s" s="44">
+      <c r="Q9" t="s" s="39">
         <v>26</v>
+      </c>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" t="s" s="45">
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="14.4" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" t="s" s="14">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s" s="14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="4"/>
-      <c r="I10" t="s" s="47">
-        <v>28</v>
-      </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" t="s" s="38">
+      <c r="I10" t="s" s="48">
         <v>29</v>
       </c>
-      <c r="R10" s="51"/>
-      <c r="S10" s="39"/>
-      <c r="T10" t="s" s="44">
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" t="s" s="39">
         <v>30</v>
+      </c>
+      <c r="R10" s="52"/>
+      <c r="S10" s="40"/>
+      <c r="T10" t="s" s="45">
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="14.4" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" t="s" s="14">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s" s="14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="2"/>
@@ -3492,82 +3568,82 @@
     <row r="12" ht="14.4" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" t="s" s="14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s" s="14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="55"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
     </row>
     <row r="13" ht="14.4" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" t="s" s="14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s" s="14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="50"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="51"/>
       <c r="Q13" t="s" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="30"/>
+      <c r="T13" s="31"/>
     </row>
     <row r="14" ht="14.4" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" t="s" s="14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s" s="14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="55"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
     </row>
     <row r="15" ht="14.4" customHeight="1">
       <c r="A15" s="2"/>
@@ -3578,22 +3654,22 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" t="s" s="32">
-        <v>35</v>
-      </c>
-      <c r="R15" t="s" s="32">
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" t="s" s="33">
         <v>36</v>
       </c>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
+      <c r="R15" t="s" s="33">
+        <v>37</v>
+      </c>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
     </row>
     <row r="16" ht="14.4" customHeight="1">
       <c r="A16" s="2"/>
@@ -3604,22 +3680,22 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="50"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="51"/>
       <c r="Q16" t="s" s="14">
-        <v>37</v>
-      </c>
-      <c r="R16" t="s" s="55">
         <v>38</v>
       </c>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
+      <c r="R16" t="s" s="56">
+        <v>39</v>
+      </c>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
     </row>
     <row r="17" ht="14.4" customHeight="1">
       <c r="A17" s="2"/>
@@ -3630,22 +3706,22 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="50"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="51"/>
       <c r="Q17" t="s" s="14">
-        <v>39</v>
-      </c>
-      <c r="R17" t="s" s="55">
         <v>40</v>
       </c>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
+      <c r="R17" t="s" s="56">
+        <v>41</v>
+      </c>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
     </row>
     <row r="18" ht="14.4" customHeight="1">
       <c r="A18" s="2"/>
@@ -3656,22 +3732,22 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="50"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="51"/>
       <c r="Q18" t="s" s="14">
-        <v>41</v>
-      </c>
-      <c r="R18" t="s" s="55">
         <v>42</v>
       </c>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
+      <c r="R18" t="s" s="56">
+        <v>43</v>
+      </c>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
     </row>
     <row r="19" ht="14.4" customHeight="1">
       <c r="A19" s="2"/>
@@ -3682,22 +3758,22 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="50"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="51"/>
       <c r="Q19" t="s" s="14">
-        <v>43</v>
-      </c>
-      <c r="R19" t="s" s="55">
         <v>44</v>
       </c>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
+      <c r="R19" t="s" s="56">
+        <v>45</v>
+      </c>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
     </row>
     <row r="20" ht="14.4" customHeight="1">
       <c r="A20" s="2"/>
@@ -3708,22 +3784,22 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="50"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="51"/>
       <c r="Q20" t="s" s="14">
-        <v>45</v>
-      </c>
-      <c r="R20" t="s" s="55">
         <v>46</v>
       </c>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
+      <c r="R20" t="s" s="56">
+        <v>47</v>
+      </c>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
     </row>
     <row r="21" ht="14.4" customHeight="1">
       <c r="A21" s="2"/>
@@ -3734,22 +3810,22 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="50"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="51"/>
       <c r="Q21" t="s" s="14">
-        <v>47</v>
-      </c>
-      <c r="R21" t="s" s="55">
         <v>48</v>
       </c>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
+      <c r="R21" t="s" s="56">
+        <v>45</v>
+      </c>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
     </row>
     <row r="22" ht="14.4" customHeight="1">
       <c r="A22" s="2"/>
@@ -3760,21 +3836,21 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="54"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="55"/>
       <c r="P22" s="8"/>
-      <c r="Q22" t="s" s="57">
+      <c r="Q22" t="s" s="58">
         <v>49</v>
       </c>
-      <c r="R22" t="s" s="55">
+      <c r="R22" t="s" s="56">
         <v>50</v>
       </c>
-      <c r="S22" s="58"/>
+      <c r="S22" s="59"/>
       <c r="T22" s="10"/>
     </row>
     <row r="23" ht="14.4" customHeight="1">
@@ -3786,13 +3862,13 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="54"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="55"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="10"/>
@@ -3808,13 +3884,13 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="61"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="62"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -4039,34 +4115,35 @@
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="62" customWidth="1"/>
-    <col min="2" max="2" width="12.3516" style="62" customWidth="1"/>
-    <col min="3" max="4" width="18.1719" style="62" customWidth="1"/>
-    <col min="5" max="5" width="26.25" style="62" customWidth="1"/>
-    <col min="6" max="6" width="8.17188" style="62" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="62" customWidth="1"/>
-    <col min="8" max="8" width="11.1719" style="62" customWidth="1"/>
-    <col min="9" max="9" width="9.35156" style="62" customWidth="1"/>
-    <col min="10" max="10" width="14.6719" style="62" customWidth="1"/>
-    <col min="11" max="11" width="6.17188" style="62" customWidth="1"/>
-    <col min="12" max="12" width="10.9219" style="62" customWidth="1"/>
-    <col min="13" max="13" width="17.3203" style="62" customWidth="1"/>
-    <col min="14" max="14" width="8.85156" style="62" customWidth="1"/>
-    <col min="15" max="15" width="11.8516" style="62" customWidth="1"/>
-    <col min="16" max="16" width="12.0547" style="62" customWidth="1"/>
-    <col min="17" max="17" width="12.0469" style="62" customWidth="1"/>
-    <col min="18" max="18" width="12.3359" style="62" customWidth="1"/>
-    <col min="19" max="19" width="11.9688" style="62" customWidth="1"/>
-    <col min="20" max="24" width="8.85156" style="62" customWidth="1"/>
-    <col min="25" max="26" width="9.17188" style="62" customWidth="1"/>
-    <col min="27" max="29" width="2.17188" style="62" customWidth="1"/>
-    <col min="30" max="30" width="3.5" style="62" customWidth="1"/>
-    <col min="31" max="31" width="2.17188" style="62" customWidth="1"/>
-    <col min="32" max="32" width="4.17188" style="62" customWidth="1"/>
-    <col min="33" max="33" width="5.17188" style="62" customWidth="1"/>
-    <col min="34" max="16384" width="8.85156" style="62" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="63" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="63" customWidth="1"/>
+    <col min="3" max="3" width="27.8438" style="63" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="63" customWidth="1"/>
+    <col min="5" max="5" width="25.2344" style="63" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="63" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="63" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="63" customWidth="1"/>
+    <col min="9" max="9" width="7" style="63" customWidth="1"/>
+    <col min="10" max="10" width="11" style="63" customWidth="1"/>
+    <col min="11" max="11" width="4.625" style="63" customWidth="1"/>
+    <col min="12" max="12" width="8.19531" style="63" customWidth="1"/>
+    <col min="13" max="13" width="13.0078" style="63" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="63" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="63" customWidth="1"/>
+    <col min="16" max="16" width="9.03906" style="63" customWidth="1"/>
+    <col min="17" max="17" width="9.03125" style="63" customWidth="1"/>
+    <col min="18" max="18" width="9.26562" style="63" customWidth="1"/>
+    <col min="19" max="19" width="8.99219" style="63" customWidth="1"/>
+    <col min="20" max="24" width="6.625" style="63" customWidth="1"/>
+    <col min="25" max="26" width="6.875" style="63" customWidth="1"/>
+    <col min="27" max="29" width="1.625" style="63" customWidth="1"/>
+    <col min="30" max="30" width="2.625" style="63" customWidth="1"/>
+    <col min="31" max="31" width="1.625" style="63" customWidth="1"/>
+    <col min="32" max="32" width="3.125" style="63" customWidth="1"/>
+    <col min="33" max="33" width="3.875" style="63" customWidth="1"/>
+    <col min="34" max="16384" width="6.625" style="63" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -4108,11 +4185,11 @@
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="10"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -4143,13 +4220,13 @@
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="B3" t="s" s="23">
-        <v>15</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="B3" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="8"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -4215,91 +4292,91 @@
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" t="s" s="64">
+      <c r="B6" t="s" s="65">
         <v>51</v>
       </c>
-      <c r="C6" t="s" s="64">
+      <c r="C6" t="s" s="65">
         <v>52</v>
       </c>
-      <c r="D6" t="s" s="65">
+      <c r="D6" t="s" s="66">
         <v>53</v>
       </c>
-      <c r="E6" t="s" s="64">
+      <c r="E6" t="s" s="65">
         <v>54</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
       <c r="Z6" s="16"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="67"/>
+      <c r="AE6" s="67"/>
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="67"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="67"/>
-      <c r="E7" t="s" s="68">
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="68"/>
+      <c r="E7" t="s" s="69">
         <v>55</v>
       </c>
-      <c r="F7" t="s" s="69">
+      <c r="F7" t="s" s="70">
         <v>56</v>
       </c>
       <c r="G7" s="16"/>
@@ -4314,8 +4391,8 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
-      <c r="S7" s="70"/>
-      <c r="T7" t="s" s="71">
+      <c r="S7" s="71"/>
+      <c r="T7" t="s" s="72">
         <v>57</v>
       </c>
       <c r="U7" s="16"/>
@@ -4324,415 +4401,523 @@
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
-      <c r="AA7" t="s" s="72">
+      <c r="AA7" t="s" s="73">
         <v>58</v>
       </c>
-      <c r="AB7" s="73"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="73"/>
-      <c r="AE7" s="73"/>
-      <c r="AF7" s="73"/>
-      <c r="AG7" s="73"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="74"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="66"/>
-      <c r="C8" t="s" s="74">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s" s="74">
-        <v>24</v>
-      </c>
-      <c r="E8" s="75"/>
-      <c r="F8" t="s" s="69">
+      <c r="B8" s="67"/>
+      <c r="C8" t="s" s="75">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s" s="75">
+        <v>25</v>
+      </c>
+      <c r="E8" s="76"/>
+      <c r="F8" t="s" s="70">
         <v>59</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="H8" t="s" s="69">
+      <c r="G8" s="71"/>
+      <c r="H8" t="s" s="70">
         <v>60</v>
       </c>
-      <c r="I8" s="70"/>
-      <c r="J8" t="s" s="69">
+      <c r="I8" s="71"/>
+      <c r="J8" t="s" s="70">
         <v>61</v>
       </c>
-      <c r="K8" s="70"/>
-      <c r="L8" t="s" s="69">
+      <c r="K8" s="71"/>
+      <c r="L8" t="s" s="70">
         <v>62</v>
       </c>
-      <c r="M8" s="70"/>
-      <c r="N8" t="s" s="69">
+      <c r="M8" s="71"/>
+      <c r="N8" t="s" s="70">
         <v>63</v>
       </c>
-      <c r="O8" s="70"/>
-      <c r="P8" t="s" s="69">
+      <c r="O8" s="71"/>
+      <c r="P8" t="s" s="70">
         <v>64</v>
       </c>
       <c r="Q8" s="16"/>
-      <c r="R8" t="s" s="69">
+      <c r="R8" t="s" s="70">
         <v>65</v>
       </c>
       <c r="S8" s="16"/>
-      <c r="T8" t="s" s="71">
-        <v>37</v>
-      </c>
-      <c r="U8" t="s" s="71">
-        <v>39</v>
-      </c>
-      <c r="V8" t="s" s="71">
-        <v>41</v>
-      </c>
-      <c r="W8" t="s" s="71">
-        <v>43</v>
-      </c>
-      <c r="X8" t="s" s="71">
-        <v>45</v>
-      </c>
-      <c r="Y8" t="s" s="71">
-        <v>47</v>
-      </c>
-      <c r="Z8" t="s" s="71">
+      <c r="T8" t="s" s="72">
+        <v>38</v>
+      </c>
+      <c r="U8" t="s" s="72">
+        <v>40</v>
+      </c>
+      <c r="V8" t="s" s="72">
+        <v>42</v>
+      </c>
+      <c r="W8" t="s" s="72">
+        <v>44</v>
+      </c>
+      <c r="X8" t="s" s="72">
+        <v>46</v>
+      </c>
+      <c r="Y8" t="s" s="72">
+        <v>48</v>
+      </c>
+      <c r="Z8" t="s" s="72">
         <v>49</v>
       </c>
-      <c r="AA8" s="76">
+      <c r="AA8" s="77">
         <v>0</v>
       </c>
-      <c r="AB8" s="76">
+      <c r="AB8" s="77">
         <v>1</v>
       </c>
-      <c r="AC8" s="76">
+      <c r="AC8" s="77">
         <v>2</v>
       </c>
-      <c r="AD8" t="s" s="72">
+      <c r="AD8" t="s" s="73">
         <v>66</v>
       </c>
-      <c r="AE8" t="s" s="72">
+      <c r="AE8" t="s" s="73">
         <v>67</v>
       </c>
-      <c r="AF8" t="s" s="72">
+      <c r="AF8" t="s" s="73">
         <v>68</v>
       </c>
-      <c r="AG8" t="s" s="72">
+      <c r="AG8" t="s" s="73">
         <v>69</v>
       </c>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="75"/>
-      <c r="F9" t="s" s="69">
+      <c r="B9" s="67"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="76"/>
+      <c r="F9" t="s" s="70">
         <v>70</v>
       </c>
-      <c r="G9" t="s" s="69">
+      <c r="G9" t="s" s="70">
         <v>71</v>
       </c>
-      <c r="H9" t="s" s="69">
+      <c r="H9" t="s" s="70">
         <v>70</v>
       </c>
-      <c r="I9" t="s" s="69">
+      <c r="I9" t="s" s="70">
         <v>71</v>
       </c>
-      <c r="J9" t="s" s="69">
+      <c r="J9" t="s" s="70">
         <v>70</v>
       </c>
-      <c r="K9" t="s" s="69">
+      <c r="K9" t="s" s="70">
         <v>71</v>
       </c>
-      <c r="L9" t="s" s="69">
+      <c r="L9" t="s" s="70">
         <v>70</v>
       </c>
-      <c r="M9" t="s" s="69">
+      <c r="M9" t="s" s="70">
         <v>71</v>
       </c>
-      <c r="N9" t="s" s="69">
+      <c r="N9" t="s" s="70">
         <v>70</v>
       </c>
-      <c r="O9" t="s" s="69">
+      <c r="O9" t="s" s="70">
         <v>71</v>
       </c>
-      <c r="P9" t="s" s="69">
+      <c r="P9" t="s" s="70">
         <v>70</v>
       </c>
-      <c r="Q9" t="s" s="69">
+      <c r="Q9" t="s" s="70">
         <v>71</v>
       </c>
-      <c r="R9" t="s" s="69">
+      <c r="R9" t="s" s="70">
         <v>70</v>
       </c>
-      <c r="S9" t="s" s="69">
+      <c r="S9" t="s" s="70">
         <v>71</v>
       </c>
-      <c r="T9" s="78"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="78"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
       <c r="Z9" s="16"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="73"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="74"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" t="s" s="79">
+      <c r="B10" t="s" s="80">
         <v>72</v>
       </c>
-      <c r="C10" t="s" s="79">
+      <c r="C10" t="s" s="80">
         <v>73</v>
       </c>
-      <c r="D10" t="b" s="80">
+      <c r="D10" t="b" s="81">
         <v>1</v>
       </c>
-      <c r="E10" t="s" s="81">
+      <c r="E10" t="s" s="82">
         <v>74</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" t="s" s="83">
+      <c r="F10" s="83"/>
+      <c r="G10" t="s" s="84">
         <v>75</v>
       </c>
-      <c r="H10" t="s" s="83">
+      <c r="H10" t="s" s="84">
         <v>75</v>
       </c>
-      <c r="I10" s="82"/>
-      <c r="J10" t="s" s="83">
+      <c r="I10" s="83"/>
+      <c r="J10" t="s" s="84">
         <v>75</v>
       </c>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" t="s" s="83">
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" t="s" s="84">
         <v>75</v>
       </c>
-      <c r="N10" s="82"/>
-      <c r="O10" t="s" s="83">
+      <c r="N10" s="83"/>
+      <c r="O10" t="s" s="84">
         <v>75</v>
       </c>
-      <c r="P10" s="82"/>
-      <c r="Q10" t="s" s="83">
+      <c r="P10" s="83"/>
+      <c r="Q10" t="s" s="84">
         <v>75</v>
       </c>
-      <c r="R10" s="82"/>
-      <c r="S10" t="s" s="83">
+      <c r="R10" s="83"/>
+      <c r="S10" t="s" s="84">
         <v>75</v>
       </c>
-      <c r="T10" s="84"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="85"/>
-      <c r="AC10" s="85"/>
-      <c r="AD10" s="85"/>
-      <c r="AE10" s="85"/>
-      <c r="AF10" s="85"/>
-      <c r="AG10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" t="s" s="86">
+        <v>75</v>
+      </c>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" t="s" s="87">
+        <v>75</v>
+      </c>
+      <c r="AB10" s="88"/>
+      <c r="AC10" s="88"/>
+      <c r="AD10" s="88"/>
+      <c r="AE10" s="88"/>
+      <c r="AF10" s="88"/>
+      <c r="AG10" s="88"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" t="s" s="79">
+      <c r="B11" t="s" s="80">
         <v>76</v>
       </c>
-      <c r="C11" t="s" s="79">
+      <c r="C11" t="s" s="80">
         <v>77</v>
       </c>
-      <c r="D11" t="b" s="80">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s" s="81">
+      <c r="D11" t="s" s="89">
         <v>78</v>
       </c>
-      <c r="F11" t="s" s="83">
+      <c r="E11" t="s" s="82">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s" s="84">
         <v>75</v>
       </c>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
       <c r="T11" t="s" s="86">
         <v>75</v>
       </c>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="85"/>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="85"/>
-      <c r="AE11" s="85"/>
-      <c r="AF11" s="85"/>
-      <c r="AG11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="85"/>
+      <c r="Y11" s="85"/>
+      <c r="Z11" s="85"/>
+      <c r="AA11" s="88"/>
+      <c r="AB11" s="88"/>
+      <c r="AC11" s="88"/>
+      <c r="AD11" s="88"/>
+      <c r="AE11" s="88"/>
+      <c r="AF11" s="88"/>
+      <c r="AG11" s="88"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" t="s" s="79">
-        <v>24</v>
-      </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="84"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="85"/>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="85"/>
-      <c r="AE12" s="85"/>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="85"/>
+      <c r="B12" t="s" s="80">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s" s="80">
+        <v>81</v>
+      </c>
+      <c r="D12" t="b" s="19">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s" s="82">
+        <v>82</v>
+      </c>
+      <c r="F12" s="83"/>
+      <c r="G12" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="H12" s="83"/>
+      <c r="I12" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="K12" s="83"/>
+      <c r="L12" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="M12" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="N12" s="83"/>
+      <c r="O12" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="P12" s="83"/>
+      <c r="Q12" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="R12" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="S12" s="83"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="85"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="85"/>
+      <c r="Z12" t="s" s="86">
+        <v>75</v>
+      </c>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="88"/>
+      <c r="AC12" t="s" s="87">
+        <v>75</v>
+      </c>
+      <c r="AD12" s="88"/>
+      <c r="AE12" t="s" s="87">
+        <v>75</v>
+      </c>
+      <c r="AF12" s="88"/>
+      <c r="AG12" s="88"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" t="s" s="79">
-        <v>24</v>
-      </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="85"/>
-      <c r="AB13" s="85"/>
-      <c r="AC13" s="85"/>
-      <c r="AD13" s="85"/>
-      <c r="AE13" s="85"/>
-      <c r="AF13" s="85"/>
-      <c r="AG13" s="85"/>
+      <c r="B13" t="s" s="80">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s" s="80">
+        <v>84</v>
+      </c>
+      <c r="D13" t="b" s="81">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s" s="82">
+        <v>85</v>
+      </c>
+      <c r="F13" s="83"/>
+      <c r="G13" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="H13" s="83"/>
+      <c r="I13" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="J13" s="83"/>
+      <c r="K13" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="85"/>
+      <c r="U13" t="s" s="86">
+        <v>75</v>
+      </c>
+      <c r="V13" t="s" s="86">
+        <v>75</v>
+      </c>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" t="s" s="87">
+        <v>75</v>
+      </c>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="88"/>
+      <c r="AD13" s="88"/>
+      <c r="AE13" s="88"/>
+      <c r="AF13" s="88"/>
+      <c r="AG13" s="88"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" t="s" s="79">
-        <v>24</v>
-      </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="84"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="85"/>
-      <c r="AC14" s="85"/>
-      <c r="AD14" s="85"/>
-      <c r="AE14" s="85"/>
-      <c r="AF14" s="85"/>
-      <c r="AG14" s="85"/>
+      <c r="B14" t="s" s="80">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s" s="80">
+        <v>87</v>
+      </c>
+      <c r="D14" t="b" s="81">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s" s="82">
+        <v>88</v>
+      </c>
+      <c r="F14" s="83"/>
+      <c r="G14" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="H14" s="83"/>
+      <c r="I14" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="K14" s="83"/>
+      <c r="L14" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="M14" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="N14" s="83"/>
+      <c r="O14" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="P14" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="83"/>
+      <c r="R14" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="S14" s="83"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" t="s" s="86">
+        <v>75</v>
+      </c>
+      <c r="Y14" t="s" s="86">
+        <v>75</v>
+      </c>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" t="s" s="87">
+        <v>75</v>
+      </c>
+      <c r="AD14" t="s" s="87">
+        <v>75</v>
+      </c>
+      <c r="AE14" s="88"/>
+      <c r="AF14" s="88"/>
+      <c r="AG14" t="s" s="87">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" t="s" s="79">
-        <v>24</v>
-      </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="85"/>
-      <c r="AB15" s="85"/>
-      <c r="AC15" s="85"/>
-      <c r="AD15" s="85"/>
-      <c r="AE15" s="85"/>
-      <c r="AF15" s="85"/>
-      <c r="AG15" s="85"/>
+      <c r="B15" t="s" s="80">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s" s="80">
+        <v>90</v>
+      </c>
+      <c r="D15" t="b" s="81">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s" s="82">
+        <v>91</v>
+      </c>
+      <c r="F15" s="83"/>
+      <c r="G15" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="H15" s="83"/>
+      <c r="I15" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="L15" s="83"/>
+      <c r="M15" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="N15" t="s" s="84">
+        <v>75</v>
+      </c>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="85"/>
+      <c r="U15" t="s" s="86">
+        <v>75</v>
+      </c>
+      <c r="V15" t="s" s="86">
+        <v>75</v>
+      </c>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="88"/>
+      <c r="AB15" t="s" s="87">
+        <v>75</v>
+      </c>
+      <c r="AC15" s="88"/>
+      <c r="AD15" s="88"/>
+      <c r="AE15" s="88"/>
+      <c r="AF15" s="88"/>
+      <c r="AG15" s="88"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="92"/>
+      <c r="B16" s="90"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -4815,21 +5000,22 @@
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="8.85156" style="93" customWidth="1"/>
-    <col min="3" max="3" width="7.17188" style="93" customWidth="1"/>
-    <col min="4" max="4" width="11.3516" style="93" customWidth="1"/>
-    <col min="5" max="5" width="9" style="93" customWidth="1"/>
-    <col min="6" max="6" width="16.1719" style="93" customWidth="1"/>
-    <col min="7" max="7" width="10.8516" style="93" customWidth="1"/>
-    <col min="8" max="8" width="10" style="93" customWidth="1"/>
-    <col min="9" max="9" width="8.85156" style="93" customWidth="1"/>
-    <col min="10" max="10" width="7.17188" style="93" customWidth="1"/>
-    <col min="11" max="12" width="10.1719" style="93" customWidth="1"/>
-    <col min="13" max="13" width="16.1719" style="93" customWidth="1"/>
-    <col min="14" max="14" width="8.85156" style="93" customWidth="1"/>
-    <col min="15" max="16384" width="8.85156" style="93" customWidth="1"/>
+    <col min="1" max="2" width="6.625" style="91" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="91" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="91" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="91" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="91" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="91" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="91" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="91" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="91" customWidth="1"/>
+    <col min="11" max="11" width="14.0547" style="91" customWidth="1"/>
+    <col min="12" max="12" width="14.0859" style="91" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="91" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="91" customWidth="1"/>
+    <col min="15" max="16384" width="6.625" style="91" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -4852,402 +5038,406 @@
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="B3" t="s" s="94">
-        <v>79</v>
-      </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
+      <c r="B3" t="s" s="92">
+        <v>92</v>
+      </c>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
       <c r="M3" s="8"/>
       <c r="N3" s="2"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" t="s" s="96">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s" s="96">
-        <v>81</v>
-      </c>
-      <c r="D4" t="s" s="97">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s" s="98">
-        <v>83</v>
-      </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="100"/>
-      <c r="K4" t="s" s="98">
-        <v>84</v>
-      </c>
-      <c r="L4" s="100"/>
+      <c r="B4" t="s" s="94">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s" s="94">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s" s="95">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s" s="96">
+        <v>96</v>
+      </c>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98"/>
+      <c r="K4" t="s" s="96">
+        <v>97</v>
+      </c>
+      <c r="L4" s="98"/>
       <c r="M4" s="8"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" ht="14.7" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
-      <c r="E5" t="s" s="103">
-        <v>85</v>
-      </c>
-      <c r="F5" t="s" s="103">
-        <v>86</v>
-      </c>
-      <c r="G5" t="s" s="103">
-        <v>87</v>
-      </c>
-      <c r="H5" t="s" s="103">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s" s="98">
-        <v>24</v>
-      </c>
-      <c r="J5" s="100"/>
-      <c r="K5" t="s" s="103">
-        <v>88</v>
-      </c>
-      <c r="L5" t="s" s="103">
-        <v>89</v>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="E5" t="s" s="101">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s" s="101">
+        <v>99</v>
+      </c>
+      <c r="G5" t="s" s="101">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s" s="101">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s" s="96">
+        <v>25</v>
+      </c>
+      <c r="J5" s="98"/>
+      <c r="K5" t="s" s="101">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="101">
+        <v>102</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="2"/>
     </row>
     <row r="6" ht="14.7" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="104">
+      <c r="B6" s="102">
         <v>9</v>
       </c>
-      <c r="C6" t="s" s="105">
-        <v>90</v>
-      </c>
-      <c r="D6" t="s" s="103">
+      <c r="C6" t="s" s="103">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s" s="101">
         <v>72</v>
       </c>
-      <c r="E6" t="s" s="103">
-        <v>85</v>
-      </c>
-      <c r="F6" t="s" s="103">
-        <v>91</v>
-      </c>
-      <c r="G6" s="104">
+      <c r="E6" t="s" s="101">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s" s="101">
+        <v>104</v>
+      </c>
+      <c r="G6" s="102">
         <v>1</v>
       </c>
-      <c r="H6" t="s" s="103">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s" s="98">
-        <v>24</v>
-      </c>
-      <c r="J6" s="100"/>
-      <c r="K6" t="b" s="104">
+      <c r="H6" t="s" s="101">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s" s="96">
+        <v>25</v>
+      </c>
+      <c r="J6" s="98"/>
+      <c r="K6" t="b" s="102">
         <v>1</v>
       </c>
-      <c r="L6" t="s" s="103">
-        <v>24</v>
+      <c r="L6" t="b" s="102">
+        <v>1</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="2"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="104">
+      <c r="B7" s="102">
         <v>10</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" t="s" s="103">
+      <c r="C7" s="104"/>
+      <c r="D7" t="s" s="101">
         <v>76</v>
       </c>
-      <c r="E7" t="s" s="103">
-        <v>92</v>
-      </c>
-      <c r="F7" t="s" s="103">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s" s="103">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s" s="103">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s" s="98">
-        <v>24</v>
-      </c>
-      <c r="J7" s="100"/>
-      <c r="K7" t="b" s="104">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s" s="103">
-        <v>24</v>
+      <c r="E7" t="s" s="101">
+        <v>105</v>
+      </c>
+      <c r="F7" t="s" s="101">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s" s="101">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s" s="101">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s" s="96">
+        <v>25</v>
+      </c>
+      <c r="J7" s="98"/>
+      <c r="K7" t="s" s="101">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s" s="101">
+        <v>78</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="2"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="104">
+      <c r="B8" s="102">
         <v>11</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="104">
+      <c r="B9" s="102">
         <v>12</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" t="s" s="103">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s" s="103">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s" s="103">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s" s="103">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s" s="103">
-        <v>24</v>
-      </c>
-      <c r="I9" t="s" s="98">
-        <v>24</v>
-      </c>
-      <c r="J9" s="100"/>
-      <c r="K9" t="s" s="103">
-        <v>24</v>
-      </c>
-      <c r="L9" t="s" s="103">
-        <v>24</v>
+      <c r="C9" s="104"/>
+      <c r="D9" t="s" s="101">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s" s="101">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s" s="101">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s" s="101">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s" s="101">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s" s="96">
+        <v>25</v>
+      </c>
+      <c r="J9" s="98"/>
+      <c r="K9" t="s" s="101">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s" s="101">
+        <v>25</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="2"/>
     </row>
     <row r="10" ht="14.7" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="104">
+      <c r="B10" s="102">
         <v>13</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" t="s" s="103">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s" s="103">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s" s="103">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s" s="103">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s" s="103">
-        <v>24</v>
-      </c>
-      <c r="I10" t="s" s="98">
-        <v>24</v>
-      </c>
-      <c r="J10" s="100"/>
-      <c r="K10" t="s" s="103">
-        <v>24</v>
-      </c>
-      <c r="L10" t="s" s="103">
-        <v>24</v>
+      <c r="C10" s="106"/>
+      <c r="D10" t="s" s="101">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s" s="101">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s" s="101">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s" s="101">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s" s="101">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s" s="96">
+        <v>25</v>
+      </c>
+      <c r="J10" s="98"/>
+      <c r="K10" t="s" s="101">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s" s="101">
+        <v>25</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="2"/>
     </row>
     <row r="11" ht="14.7" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
     <row r="12" ht="14.7" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" t="s" s="109">
-        <v>93</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
+      <c r="B12" t="s" s="108">
+        <v>106</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" t="s" s="111">
-        <v>94</v>
-      </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" t="s" s="113">
-        <v>95</v>
-      </c>
-      <c r="G13" s="114"/>
-      <c r="H13" t="s" s="111">
-        <v>96</v>
-      </c>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="115"/>
-      <c r="M13" t="s" s="116">
-        <v>97</v>
-      </c>
-      <c r="N13" s="117"/>
+      <c r="B13" t="s" s="110">
+        <v>107</v>
+      </c>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" t="s" s="112">
+        <v>108</v>
+      </c>
+      <c r="G13" s="113"/>
+      <c r="H13" t="s" s="110">
+        <v>109</v>
+      </c>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="114"/>
+      <c r="M13" t="s" s="115">
+        <v>110</v>
+      </c>
+      <c r="N13" s="116"/>
     </row>
     <row r="14" ht="14.7" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" t="s" s="118">
-        <v>98</v>
-      </c>
-      <c r="C14" t="s" s="118">
-        <v>99</v>
-      </c>
-      <c r="D14" t="s" s="118">
-        <v>100</v>
-      </c>
-      <c r="E14" t="s" s="119">
-        <v>101</v>
-      </c>
-      <c r="F14" t="s" s="120">
-        <v>102</v>
-      </c>
-      <c r="G14" t="s" s="118">
-        <v>103</v>
-      </c>
-      <c r="H14" t="s" s="121">
-        <v>104</v>
-      </c>
-      <c r="I14" t="s" s="118">
-        <v>98</v>
-      </c>
-      <c r="J14" t="s" s="118">
-        <v>99</v>
-      </c>
-      <c r="K14" t="s" s="118">
-        <v>105</v>
-      </c>
-      <c r="L14" t="s" s="119">
-        <v>106</v>
-      </c>
-      <c r="M14" t="s" s="96">
-        <v>107</v>
-      </c>
-      <c r="N14" t="s" s="96">
-        <v>108</v>
+      <c r="B14" t="s" s="117">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s" s="117">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s" s="117">
+        <v>113</v>
+      </c>
+      <c r="E14" t="s" s="118">
+        <v>114</v>
+      </c>
+      <c r="F14" t="s" s="119">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s" s="117">
+        <v>116</v>
+      </c>
+      <c r="H14" t="s" s="120">
+        <v>117</v>
+      </c>
+      <c r="I14" t="s" s="117">
+        <v>111</v>
+      </c>
+      <c r="J14" t="s" s="117">
+        <v>112</v>
+      </c>
+      <c r="K14" t="s" s="117">
+        <v>118</v>
+      </c>
+      <c r="L14" t="s" s="118">
+        <v>119</v>
+      </c>
+      <c r="M14" t="s" s="94">
+        <v>120</v>
+      </c>
+      <c r="N14" t="s" s="94">
+        <v>121</v>
       </c>
     </row>
     <row r="15" ht="92.5" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="125">
+      <c r="B16" s="19">
         <f>SUM(C16:D16)</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="124">
+        <v>2</v>
+      </c>
+      <c r="D16" s="124">
         <v>0</v>
       </c>
-      <c r="C16" s="126">
+      <c r="E16" s="125">
+        <v>0.67</v>
+      </c>
+      <c r="F16" s="124">
         <v>0</v>
       </c>
-      <c r="D16" s="126">
-        <v>0</v>
-      </c>
-      <c r="E16" s="127"/>
-      <c r="F16" s="128"/>
-      <c r="G16" t="s" s="129">
-        <v>109</v>
-      </c>
-      <c r="H16" t="s" s="129">
-        <v>109</v>
-      </c>
-      <c r="I16" s="125">
+      <c r="G16" t="s" s="126">
+        <v>122</v>
+      </c>
+      <c r="H16" t="s" s="126">
+        <v>122</v>
+      </c>
+      <c r="I16" s="19">
         <f>SUM(J16:K16)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="126">
+      <c r="J16" s="124">
         <v>0</v>
       </c>
-      <c r="K16" s="126">
+      <c r="K16" s="124">
         <v>0</v>
       </c>
       <c r="L16" s="127"/>
-      <c r="M16" t="s" s="130">
-        <v>109</v>
-      </c>
-      <c r="N16" s="126">
-        <f>C16</f>
+      <c r="M16" t="s" s="128">
+        <v>122</v>
+      </c>
+      <c r="N16" s="124">
+        <f>0</f>
         <v>0</v>
       </c>
     </row>
